--- a/mysql/pqmt.xlsx
+++ b/mysql/pqmt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\达内2008web训练营\第4阶段\Grassjelly\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F92432-9683-4F52-9883-EF39033707B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6F7917-BD43-4C69-BC0E-B1C15853373F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="1725" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="1725" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -894,14 +894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司动态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业资讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>企业简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1030,6 +1022,14 @@
   </si>
   <si>
     <t>is_checked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业动态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>184</v>
@@ -2355,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>3</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>36</v>
@@ -2375,15 +2375,15 @@
         <v>10</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>13</v>
@@ -2392,15 +2392,15 @@
         <v>10</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>13</v>
@@ -2409,12 +2409,12 @@
         <v>10</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>36</v>
@@ -2429,12 +2429,12 @@
         <v>10</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>36</v>
@@ -2446,15 +2446,15 @@
         <v>10</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>9</v>
@@ -2466,7 +2466,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -2632,7 +2632,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>189</v>
@@ -2667,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBCEA09-D644-4858-B74B-707194867C57}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2947,7 +2947,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D24" s="10">
         <v>5</v>
@@ -2958,7 +2958,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="D25" s="10">
         <v>5</v>
@@ -2969,7 +2969,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D26" s="10">
         <v>7</v>
@@ -2980,7 +2980,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D27" s="10">
         <v>7</v>
@@ -2991,7 +2991,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D28" s="10">
         <v>7</v>
@@ -3357,10 +3357,10 @@
         <v>200</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D8" s="15">
         <v>1</v>
@@ -3379,7 +3379,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -3390,7 +3390,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
@@ -3412,7 +3412,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D12" s="15">
         <v>1</v>
@@ -3423,7 +3423,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D13" s="15">
         <v>1</v>
@@ -3434,7 +3434,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D14" s="15">
         <v>1</v>
@@ -3445,7 +3445,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -3770,7 +3770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BA0F09-7E1B-423F-A749-BDE072F8C5F4}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>27</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>31</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>33</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>39</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>88</v>
